--- a/scripts/test_cmd/index.xlsx
+++ b/scripts/test_cmd/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudoo\Documents\auto-key\scripts\test_cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DCEB56-30AE-4013-990D-BD86C0ED893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7FB2E-C829-4D5F-AA10-75CCF597409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="5340" windowWidth="27360" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
+    <workbookView xWindow="5745" yWindow="5985" windowWidth="27360" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/scripts/test_cmd/index.xlsx
+++ b/scripts/test_cmd/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudoo\Documents\auto-key\scripts\test_cmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pan/projects/auto-key/scripts/test_cmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7FB2E-C829-4D5F-AA10-75CCF597409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FFD0A-4F30-D440-AB68-430D8030AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="5985" windowWidth="27360" windowHeight="12330" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5B56EB7D-8F86-4E8F-B448-377A106F7C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,29 +32,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳转</t>
+    <t>1.bat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>横向偏移量 offset_x</t>
+    <t>cmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纵向偏移量 offset_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令类型：1. 单击 2. 双击 3. 右键 4. 输入 5. 等待 6. 滚轮 7. 快捷键 8. 按住/拖动 9. 运行bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.bat</t>
+    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,40 +411,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513708CD-494A-4F9F-A495-41CCF8528D4E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.875" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
